--- a/medicine/Mort/Cimetière_de_Kountsevo/Cimetière_de_Kountsevo.xlsx
+++ b/medicine/Mort/Cimetière_de_Kountsevo/Cimetière_de_Kountsevo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Kountsevo</t>
+          <t>Cimetière_de_Kountsevo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le cimetière de Kountsevo est un cimetière de Moscou, situé dans un terrain de plus de 16 hectares dans le district administratif ouest de la capitale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Kountsevo</t>
+          <t>Cimetière_de_Kountsevo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière est divisé en deux parties : une partie ancienne, fermée aux inhumations, et une partie nouvelle. Le cimetière ancien a été fondé au XVIIe siècle dans le village de Spasskoïe au bord de la Setoun. L'église du Sauveur a été construite peu après entre 1673 et 1676 dans le cimetière. Celui-ci est agrégé au bourg de Kountsevo en 1920 qui devient une partie de la municipalité de Moscou en 1960.
 On remarque un carré de soldats tombés pendant la « Grande Guerre patriotique » (Seconde Guerre mondiale). Un monument aux morts leur a été dédié en 1975.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Kountsevo</t>
+          <t>Cimetière_de_Kountsevo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,16 +560,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vieux cimetière
-Konstantin Badiguine, écrivain et explorateur polaire
+          <t>Vieux cimetière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Konstantin Badiguine, écrivain et explorateur polaire
 Varlam Chalamov, écrivain
 Alexandre Kotov, champion d'échecs
 Gueorgui Malenkov, dirigeant du PCUS
 Ramón Mercader-Lopez, assassin de Trotski
 Kim Philby, espion
-Youri Trifonov, écrivain
-Nouveau cimetière
-Vsevolod Bobrov, champion de hockey sur glace
+Youri Trifonov, écrivain</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Kountsevo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Kountsevo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière de Kountsevo</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nouveau cimetière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vsevolod Bobrov, champion de hockey sur glace
 Albert Chesternev, footballeur
 Leontine Cohen, espionne
 Morris Cohen, espion
